--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.05210283723883</v>
+        <v>0.397225</v>
       </c>
       <c r="H2">
-        <v>1.05210283723883</v>
+        <v>1.191675</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2502673203813375</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3297344111653286</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N2">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O2">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P2">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q2">
-        <v>43.86805104873618</v>
+        <v>21.62161402496667</v>
       </c>
       <c r="R2">
-        <v>43.86805104873618</v>
+        <v>194.5945262247</v>
       </c>
       <c r="S2">
-        <v>0.1916523227071156</v>
+        <v>0.05578285343270076</v>
       </c>
       <c r="T2">
-        <v>0.1916523227071156</v>
+        <v>0.07673671210766569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.05210283723883</v>
+        <v>0.397225</v>
       </c>
       <c r="H3">
-        <v>1.05210283723883</v>
+        <v>1.191675</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2502673203813375</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3297344111653286</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N3">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P3">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q3">
-        <v>123.2263952569537</v>
+        <v>50.33219451074167</v>
       </c>
       <c r="R3">
-        <v>123.2263952569537</v>
+        <v>452.989750596675</v>
       </c>
       <c r="S3">
-        <v>0.5383559174667427</v>
+        <v>0.129854941730846</v>
       </c>
       <c r="T3">
-        <v>0.5383559174667427</v>
+        <v>0.1786326920579543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.05210283723883</v>
+        <v>0.397225</v>
       </c>
       <c r="H4">
-        <v>1.05210283723883</v>
+        <v>1.191675</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2502673203813375</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3297344111653286</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N4">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O4">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P4">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q4">
-        <v>14.85992772681503</v>
+        <v>6.9479752869</v>
       </c>
       <c r="R4">
-        <v>14.85992772681503</v>
+        <v>62.53177758210001</v>
       </c>
       <c r="S4">
-        <v>0.06492058789983599</v>
+        <v>0.01792548357563085</v>
       </c>
       <c r="T4">
-        <v>0.06492058789983599</v>
+        <v>0.02465887970742477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.05210283723883</v>
+        <v>0.397225</v>
       </c>
       <c r="H5">
-        <v>1.05210283723883</v>
+        <v>1.191675</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2502673203813375</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3297344111653286</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N5">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O5">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P5">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q5">
-        <v>15.34384728085928</v>
+        <v>5.810860994366666</v>
       </c>
       <c r="R5">
-        <v>15.34384728085928</v>
+        <v>52.29774894929999</v>
       </c>
       <c r="S5">
-        <v>0.0670347530911032</v>
+        <v>0.01499177659874322</v>
       </c>
       <c r="T5">
-        <v>0.0670347530911032</v>
+        <v>0.02062317672989107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.397225</v>
+      </c>
+      <c r="H6">
+        <v>1.191675</v>
+      </c>
+      <c r="I6">
+        <v>0.2502673203813375</v>
+      </c>
+      <c r="J6">
+        <v>0.3297344111653286</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>30.9441155</v>
+      </c>
+      <c r="N6">
+        <v>61.888231</v>
+      </c>
+      <c r="O6">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P6">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q6">
+        <v>12.2917762794875</v>
+      </c>
+      <c r="R6">
+        <v>73.750657676925</v>
+      </c>
+      <c r="S6">
+        <v>0.03171226504341672</v>
+      </c>
+      <c r="T6">
+        <v>0.0290829505623928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04241433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.127243</v>
+      </c>
+      <c r="I7">
+        <v>0.02672269255231714</v>
+      </c>
+      <c r="J7">
+        <v>0.03520791799770064</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>54.43165466666667</v>
+      </c>
+      <c r="N7">
+        <v>163.294964</v>
+      </c>
+      <c r="O7">
+        <v>0.2228930782800698</v>
+      </c>
+      <c r="P7">
+        <v>0.2327227899462091</v>
+      </c>
+      <c r="Q7">
+        <v>2.308682344916889</v>
+      </c>
+      <c r="R7">
+        <v>20.778141104252</v>
+      </c>
+      <c r="S7">
+        <v>0.005956303202917863</v>
+      </c>
+      <c r="T7">
+        <v>0.00819368490462224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04241433333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.127243</v>
+      </c>
+      <c r="I8">
+        <v>0.02672269255231714</v>
+      </c>
+      <c r="J8">
+        <v>0.03520791799770064</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>126.7095336666667</v>
+      </c>
+      <c r="N8">
+        <v>380.128601</v>
+      </c>
+      <c r="O8">
+        <v>0.5188649542136915</v>
+      </c>
+      <c r="P8">
+        <v>0.541747194133123</v>
+      </c>
+      <c r="Q8">
+        <v>5.374300397449222</v>
+      </c>
+      <c r="R8">
+        <v>48.368703577043</v>
+      </c>
+      <c r="S8">
+        <v>0.01386546864762459</v>
+      </c>
+      <c r="T8">
+        <v>0.0190737907865234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04241433333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.127243</v>
+      </c>
+      <c r="I9">
+        <v>0.02672269255231714</v>
+      </c>
+      <c r="J9">
+        <v>0.03520791799770064</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.491284</v>
+      </c>
+      <c r="N9">
+        <v>52.473852</v>
+      </c>
+      <c r="O9">
+        <v>0.07162534664261168</v>
+      </c>
+      <c r="P9">
+        <v>0.07478406521259567</v>
+      </c>
+      <c r="Q9">
+        <v>0.741881150004</v>
+      </c>
+      <c r="R9">
+        <v>6.676930350036</v>
+      </c>
+      <c r="S9">
+        <v>0.001914022117283653</v>
+      </c>
+      <c r="T9">
+        <v>0.002632991235539765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04241433333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.127243</v>
+      </c>
+      <c r="I10">
+        <v>0.02672269255231714</v>
+      </c>
+      <c r="J10">
+        <v>0.03520791799770064</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.62863866666667</v>
+      </c>
+      <c r="N10">
+        <v>43.88591599999999</v>
+      </c>
+      <c r="O10">
+        <v>0.05990305316690945</v>
+      </c>
+      <c r="P10">
+        <v>0.06254481192001105</v>
+      </c>
+      <c r="Q10">
+        <v>0.6204639566208888</v>
+      </c>
+      <c r="R10">
+        <v>5.584175609587999</v>
+      </c>
+      <c r="S10">
+        <v>0.001600770872724429</v>
+      </c>
+      <c r="T10">
+        <v>0.002202072609261358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04241433333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.127243</v>
+      </c>
+      <c r="I11">
+        <v>0.02672269255231714</v>
+      </c>
+      <c r="J11">
+        <v>0.03520791799770064</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>30.9441155</v>
+      </c>
+      <c r="N11">
+        <v>61.888231</v>
+      </c>
+      <c r="O11">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P11">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q11">
+        <v>1.312474029522167</v>
+      </c>
+      <c r="R11">
+        <v>7.874844177133</v>
+      </c>
+      <c r="S11">
+        <v>0.003386127711766609</v>
+      </c>
+      <c r="T11">
+        <v>0.003105378461753874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.1475635</v>
+      </c>
+      <c r="H12">
+        <v>2.295127</v>
+      </c>
+      <c r="I12">
+        <v>0.7230099870663453</v>
+      </c>
+      <c r="J12">
+        <v>0.6350576708369707</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.43165466666667</v>
+      </c>
+      <c r="N12">
+        <v>163.294964</v>
+      </c>
+      <c r="O12">
+        <v>0.2228930782800698</v>
+      </c>
+      <c r="P12">
+        <v>0.2327227899462091</v>
+      </c>
+      <c r="Q12">
+        <v>62.46378014007133</v>
+      </c>
+      <c r="R12">
+        <v>374.782680840428</v>
+      </c>
+      <c r="S12">
+        <v>0.1611539216444511</v>
+      </c>
+      <c r="T12">
+        <v>0.1477923929339211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.05210283723883</v>
-      </c>
-      <c r="H6">
-        <v>1.05210283723883</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>30.0309966128071</v>
-      </c>
-      <c r="N6">
-        <v>30.0309966128071</v>
-      </c>
-      <c r="O6">
-        <v>0.1380364188352026</v>
-      </c>
-      <c r="P6">
-        <v>0.1380364188352026</v>
-      </c>
-      <c r="Q6">
-        <v>31.59569674144404</v>
-      </c>
-      <c r="R6">
-        <v>31.59569674144404</v>
-      </c>
-      <c r="S6">
-        <v>0.1380364188352026</v>
-      </c>
-      <c r="T6">
-        <v>0.1380364188352026</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.1475635</v>
+      </c>
+      <c r="H13">
+        <v>2.295127</v>
+      </c>
+      <c r="I13">
+        <v>0.7230099870663453</v>
+      </c>
+      <c r="J13">
+        <v>0.6350576708369707</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>126.7095336666667</v>
+      </c>
+      <c r="N13">
+        <v>380.128601</v>
+      </c>
+      <c r="O13">
+        <v>0.5188649542136915</v>
+      </c>
+      <c r="P13">
+        <v>0.541747194133123</v>
+      </c>
+      <c r="Q13">
+        <v>145.4072359378878</v>
+      </c>
+      <c r="R13">
+        <v>872.443415627327</v>
+      </c>
+      <c r="S13">
+        <v>0.3751445438352209</v>
+      </c>
+      <c r="T13">
+        <v>0.3440407112886453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.1475635</v>
+      </c>
+      <c r="H14">
+        <v>2.295127</v>
+      </c>
+      <c r="I14">
+        <v>0.7230099870663453</v>
+      </c>
+      <c r="J14">
+        <v>0.6350576708369707</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.491284</v>
+      </c>
+      <c r="N14">
+        <v>52.473852</v>
+      </c>
+      <c r="O14">
+        <v>0.07162534664261168</v>
+      </c>
+      <c r="P14">
+        <v>0.07478406521259567</v>
+      </c>
+      <c r="Q14">
+        <v>20.072359086534</v>
+      </c>
+      <c r="R14">
+        <v>120.434154519204</v>
+      </c>
+      <c r="S14">
+        <v>0.05178584094969717</v>
+      </c>
+      <c r="T14">
+        <v>0.04749219426963114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.1475635</v>
+      </c>
+      <c r="H15">
+        <v>2.295127</v>
+      </c>
+      <c r="I15">
+        <v>0.7230099870663453</v>
+      </c>
+      <c r="J15">
+        <v>0.6350576708369707</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.62863866666667</v>
+      </c>
+      <c r="N15">
+        <v>43.88591599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.05990305316690945</v>
+      </c>
+      <c r="P15">
+        <v>0.06254481192001105</v>
+      </c>
+      <c r="Q15">
+        <v>16.78729178855533</v>
+      </c>
+      <c r="R15">
+        <v>100.723750731332</v>
+      </c>
+      <c r="S15">
+        <v>0.0433105056954418</v>
+      </c>
+      <c r="T15">
+        <v>0.03971956258085862</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.1475635</v>
+      </c>
+      <c r="H16">
+        <v>2.295127</v>
+      </c>
+      <c r="I16">
+        <v>0.7230099870663453</v>
+      </c>
+      <c r="J16">
+        <v>0.6350576708369707</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.9441155</v>
+      </c>
+      <c r="N16">
+        <v>61.888231</v>
+      </c>
+      <c r="O16">
+        <v>0.1267135676967176</v>
+      </c>
+      <c r="P16">
+        <v>0.08820113878806125</v>
+      </c>
+      <c r="Q16">
+        <v>35.51033748758425</v>
+      </c>
+      <c r="R16">
+        <v>142.041349950337</v>
+      </c>
+      <c r="S16">
+        <v>0.09161517494153425</v>
+      </c>
+      <c r="T16">
+        <v>0.05601280976391457</v>
       </c>
     </row>
   </sheetData>
